--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="400">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1207,6 +1207,15 @@
   </si>
   <si>
     <t>Entities</t>
+  </si>
+  <si>
+    <t>REVISADO</t>
+  </si>
+  <si>
+    <t>PARAMETRIZAR LOS VALORES</t>
+  </si>
+  <si>
+    <t>PARAMETRIZAR EL IVA</t>
   </si>
 </sst>
 </file>
@@ -1591,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1624,49 +1633,63 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
@@ -1680,168 +1703,220 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
@@ -3992,7 +4067,7 @@
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4017,14 +4092,18 @@
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="401">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -150,9 +150,6 @@
     <t>frmRecuperarDinero</t>
   </si>
   <si>
-    <t>frmResumenCaja</t>
-  </si>
-  <si>
     <t>ArqueoDeCaja</t>
   </si>
   <si>
@@ -1216,13 +1213,19 @@
   </si>
   <si>
     <t>PARAMETRIZAR EL IVA</t>
+  </si>
+  <si>
+    <t>frmArqueoCaja</t>
+  </si>
+  <si>
+    <t>RECONSTRUIDO DESDE CERO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1235,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1286,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,6 +1315,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1600,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1624,7 +1636,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1634,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1643,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1652,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1661,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1670,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1679,7 +1691,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1688,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1704,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1713,10 +1725,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1724,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -1733,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1742,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1751,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -1760,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1769,10 +1781,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1780,7 +1792,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1789,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1798,7 +1810,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -1807,7 +1819,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1816,7 +1828,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -1825,7 +1837,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1834,7 +1846,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1843,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -1852,7 +1864,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1861,7 +1873,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -1870,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1879,7 +1891,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -1888,7 +1900,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -1897,7 +1909,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1906,7 +1918,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -1915,13 +1927,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1930,1888 +1942,1932 @@
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>376</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3"/>
+        <v>399</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>396</v>
+      </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>375</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B57" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -4093,7 +4149,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -4102,419 +4158,419 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4526,112 +4582,112 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5173,120 +5229,120 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
         <v>312</v>
       </c>
-      <c r="B3" t="s">
-        <v>313</v>
-      </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="404">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1219,13 +1219,35 @@
   </si>
   <si>
     <t>RECONSTRUIDO DESDE CERO</t>
+  </si>
+  <si>
+    <t>CLASES FACTURACION ELECTRONICA</t>
+  </si>
+  <si>
+    <t>VERIFICAR UN NODO CUANDO SE HAGA PRUEBAS. ES ALGO DEL TOTAL.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REEMPLAZADO POR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClaseImprimirFacturaElectronica</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1267,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1612,13 +1642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="70.85546875" customWidth="1"/>
   </cols>
@@ -2164,8 +2194,12 @@
       <c r="A62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
@@ -2182,15 +2216,23 @@
       <c r="A64" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
@@ -2203,63 +2245,81 @@
       <c r="A67" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3">
@@ -4122,15 +4182,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4576,85 +4636,113 @@
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="B64" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3">

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FORMULARIOS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="411">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1241,6 +1241,27 @@
       </rPr>
       <t>ClaseImprimirFacturaElectronica</t>
     </r>
+  </si>
+  <si>
+    <t>FORMULARIO VACIO</t>
+  </si>
+  <si>
+    <t>INTEGRAR CON LAS ID FORMA PAGO EN LAS FACTURAS</t>
+  </si>
+  <si>
+    <t>INTEGRAR CON LAS ID FORMA PAGO EN LAS FACTURAS, REVISAR ANIMACION DE BOTONES</t>
+  </si>
+  <si>
+    <t>FinformacionFacturaOrden</t>
+  </si>
+  <si>
+    <t>NO SE REFLEJA EN LA RECUPERACION</t>
+  </si>
+  <si>
+    <t>REVISAR QUE TIENE QUE VER LOS METODOS PAGOS EN EL EVENTO LOST FOCUS</t>
+  </si>
+  <si>
+    <t>REVISAR CON EL PROGRAMA CONTABLE</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,6 +1367,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1640,17 +1662,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C353"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" customWidth="1"/>
+    <col min="3" max="3" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2326,71 +2348,93 @@
       <c r="A76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
@@ -2403,63 +2447,85 @@
       <c r="A87" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
@@ -2473,1704 +2539,1557 @@
       <c r="A97" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B117" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B118" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B119" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B120" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B121" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B122" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B123" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B124" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B125" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B126" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B128" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B129" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B130" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B131" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B132" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B133" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B134" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="6" t="s">
+      <c r="B136" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="6" t="s">
+      <c r="B155" s="7"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5"/>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5"/>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="4" t="s">
-        <v>359</v>
+      <c r="A195" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
-        <v>250</v>
+        <v>364</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="3" t="s">
-        <v>251</v>
+        <v>365</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="3" t="s">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="6" t="s">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="4" t="s">
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="6" t="s">
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="3" t="s">
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="6" t="s">
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="3" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="3" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B284" s="5"/>
-      <c r="C284" s="5"/>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="3" t="s">
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="6" t="s">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B286" s="5"/>
-      <c r="C286" s="5"/>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="3" t="s">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="6" t="s">
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="3" t="s">
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="6" t="s">
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="3" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="6" t="s">
+      <c r="A304" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="3" t="s">
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="3"/>
-      <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="3"/>
-      <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="3"/>
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="3"/>
-      <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="3"/>
-      <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="3"/>
-      <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="3"/>
-      <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="3"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="3"/>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="3"/>
-      <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="3"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="3"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="3"/>
-      <c r="B324" s="3"/>
-      <c r="C324" s="3"/>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="3"/>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="3"/>
-      <c r="B326" s="3"/>
-      <c r="C326" s="3"/>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3"/>
-      <c r="C327" s="3"/>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="3"/>
-      <c r="B328" s="3"/>
-      <c r="C328" s="3"/>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="3"/>
-      <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="3"/>
-      <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="3"/>
-      <c r="B332" s="3"/>
-      <c r="C332" s="3"/>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="3"/>
-      <c r="B333" s="3"/>
-      <c r="C333" s="3"/>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="3"/>
-      <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="3"/>
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="3"/>
-      <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="3"/>
-      <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="3"/>
-      <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="3"/>
-      <c r="B339" s="3"/>
-      <c r="C339" s="3"/>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="3"/>
-      <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="3"/>
-      <c r="B341" s="3"/>
-      <c r="C341" s="3"/>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="3"/>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="3"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="3"/>
-      <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="3"/>
-      <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="3"/>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="3"/>
-      <c r="B348" s="3"/>
-      <c r="C348" s="3"/>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="3"/>
-      <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="3"/>
-      <c r="B350" s="3"/>
-      <c r="C350" s="3"/>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="3"/>
-      <c r="B351" s="3"/>
-      <c r="C351" s="3"/>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="3"/>
-      <c r="B352" s="3"/>
-      <c r="C352" s="3"/>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="3"/>
-      <c r="B353" s="3"/>
-      <c r="C353" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4182,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4756,7 +4675,9 @@
       <c r="A76" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="FORMULARIOS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="412">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1262,6 +1262,9 @@
   </si>
   <si>
     <t>REVISAR CON EL PROGRAMA CONTABLE</t>
+  </si>
+  <si>
+    <t>REESTRUCTURAR Y REVISAR FUNCIONALIDAD. ORDENAR LAS INSTRUCCIONES SQL</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,7 +1361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1664,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1687,11 +1689,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
@@ -2060,13 +2062,13 @@
       <c r="B43" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>396</v>
       </c>
       <c r="C44" s="3"/>
@@ -2170,7 +2172,7 @@
       <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>377</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2366,7 +2368,7 @@
       <c r="A78" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C78" s="3"/>
@@ -2375,7 +2377,7 @@
       <c r="A79" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C79" s="3"/>
@@ -2384,7 +2386,7 @@
       <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C80" s="3"/>
@@ -2393,7 +2395,7 @@
       <c r="A81" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C81" s="3"/>
@@ -2912,28 +2914,36 @@
       <c r="A138" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B138" s="3"/>
+      <c r="B138" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3">
@@ -2947,92 +2957,138 @@
       <c r="A143" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B143" s="3"/>
+      <c r="B143" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="10"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="B145" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="B146" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="B147" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="B148" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="B149" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="B150" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="B151" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="B154" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="3"/>
+      <c r="B155" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
@@ -3045,14 +3101,18 @@
       <c r="A157" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3">
@@ -3301,14 +3361,14 @@
       <c r="C193" s="5"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B195" s="4"/>
@@ -4101,7 +4161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="414">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1265,6 +1265,12 @@
   </si>
   <si>
     <t>REESTRUCTURAR Y REVISAR FUNCIONALIDAD. ORDENAR LAS INSTRUCCIONES SQL</t>
+  </si>
+  <si>
+    <t>REVISAR EL FORMULARIO CUANDO SE HAYA RECUPERADO TODO EL PROYECTO.</t>
+  </si>
+  <si>
+    <t>REVISAR FUNCIONALIDAD AL TERMINAR LA INTEGRACION</t>
   </si>
 </sst>
 </file>
@@ -1666,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3119,22 +3125,30 @@
       <c r="A159" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B160" s="3"/>
+      <c r="B160" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="B161" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
@@ -3147,28 +3161,36 @@
       <c r="A163" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B163" s="3"/>
+      <c r="B163" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B164" s="3"/>
+      <c r="B164" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B166" s="3"/>
+      <c r="B166" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3">
@@ -3182,70 +3204,90 @@
       <c r="A168" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B168" s="3"/>
+      <c r="B168" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B169" s="3"/>
+      <c r="B169" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B171" s="3"/>
+      <c r="B171" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B173" s="3"/>
+      <c r="B173" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B174" s="3"/>
+      <c r="B174" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B176" s="3"/>
+      <c r="B176" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3">
@@ -3259,56 +3301,74 @@
       <c r="A179" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B180" s="3"/>
+      <c r="B180" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
+      <c r="B182" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B183" s="3"/>
+      <c r="B183" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B184" s="3"/>
+      <c r="B184" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B186" s="3"/>
+      <c r="B186" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3">
@@ -3322,14 +3382,18 @@
       <c r="A188" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B188" s="3"/>
+      <c r="B188" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B189" s="3"/>
+      <c r="B189" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3">
@@ -3343,14 +3407,18 @@
       <c r="A191" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B191" s="3"/>
+      <c r="B191" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B192" s="3"/>
+      <c r="B192" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3">
@@ -3364,21 +3432,27 @@
       <c r="A194" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B196" s="4"/>
+      <c r="B196" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3">

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="419">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1271,6 +1271,21 @@
   </si>
   <si>
     <t>REVISAR FUNCIONALIDAD AL TERMINAR LA INTEGRACION</t>
+  </si>
+  <si>
+    <t>PARA SIGUIENTE VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEGRAR CON LA FORMA DE IMPRESIÓN </t>
+  </si>
+  <si>
+    <t>REVISAR CON LA INTEGRACION</t>
+  </si>
+  <si>
+    <t>FORMULARIO ANTIGUO</t>
+  </si>
+  <si>
+    <t>FORMULARIO REEMPLAZADO POR frmRepartidorExterno</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1391,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3459,77 +3475,99 @@
       <c r="A197" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B197" s="4"/>
+      <c r="B197" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B200" s="4"/>
+      <c r="B200" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B201" s="3"/>
+      <c r="B201" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B202" s="3"/>
+      <c r="B202" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B203" s="3"/>
+      <c r="B203" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B204" s="3"/>
+      <c r="B204" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B205" s="3"/>
+      <c r="B205" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B206" s="3"/>
+      <c r="B206" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B207" s="3"/>
+      <c r="B207" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3">
@@ -3543,147 +3581,191 @@
       <c r="A209" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="B209" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B210" s="3"/>
+      <c r="B210" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B212" s="3"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B213" s="3"/>
+      <c r="B213" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
+      <c r="B214" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B215" s="3"/>
+      <c r="B215" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B217" s="3"/>
+      <c r="B217" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="3"/>
+      <c r="B218" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B219" s="3"/>
+      <c r="B219" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B220" s="3"/>
+      <c r="B220" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B221" s="3"/>
+      <c r="B221" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B222" s="3"/>
+      <c r="B222" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B223" s="3"/>
+      <c r="B223" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B224" s="3"/>
+      <c r="B224" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B225" s="3"/>
+      <c r="B225" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="B226" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B227" s="3"/>
+      <c r="B227" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B229" s="3"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" spans="1:3">
@@ -3697,35 +3779,45 @@
       <c r="A231" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B231" s="3"/>
+      <c r="B231" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B232" s="3"/>
+      <c r="B232" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B233" s="3"/>
+      <c r="B233" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B234" s="3"/>
+      <c r="B234" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B235" s="3"/>
+      <c r="B235" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3">
@@ -3739,491 +3831,605 @@
       <c r="A237" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B238" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B240" s="3"/>
+      <c r="B240" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="3" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B242" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B243" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B244" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B245" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B246" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="6" t="s">
+      <c r="B248" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="3" t="s">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="6" t="s">
+      <c r="B250" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B253" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B254" s="3"/>
+        <v>298</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B255" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B256" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B257" s="3"/>
+        <v>301</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B258" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B259" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B260" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B261" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B262" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B263" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B264" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="6" t="s">
+      <c r="B266" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="4" t="s">
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="6" t="s">
+      <c r="B268" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B268" s="5"/>
-      <c r="C268" s="5"/>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B269" s="3"/>
-      <c r="C269" s="3"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
+      <c r="A270" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B271" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B272" s="3"/>
-      <c r="C272" s="3"/>
+      <c r="A272" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
+      <c r="A281" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
+      <c r="A283" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B285" s="5"/>
-      <c r="C285" s="5"/>
+      <c r="A285" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B288" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B290" s="3"/>
+        <v>342</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
+        <v>391</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
+      <c r="B294" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B295" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
+      <c r="A296" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B297" s="3"/>
+        <v>347</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B298" s="3"/>
+        <v>348</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B299" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B300" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B301" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B302" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B303" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B304" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
+      <c r="A305" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B306" s="3"/>
-      <c r="C306" s="3"/>
+      <c r="B308" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C308" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4235,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="425">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>ObtenerNumeroMovimiento</t>
-  </si>
-  <si>
-    <t>PaisEntity</t>
   </si>
   <si>
     <t>ClaseConsultarXML</t>
@@ -1286,6 +1283,27 @@
   </si>
   <si>
     <t>FORMULARIO REEMPLAZADO POR frmRepartidorExterno</t>
+  </si>
+  <si>
+    <t>cambiar el id tipo comprobante con la parametrizacion en nota de entrega</t>
+  </si>
+  <si>
+    <t>CLASE CREADA</t>
+  </si>
+  <si>
+    <t>VERSION ANTERIOR QUE YA NO SE USA</t>
+  </si>
+  <si>
+    <t>NO EXISTE</t>
+  </si>
+  <si>
+    <t>reVISADO</t>
+  </si>
+  <si>
+    <t>FORMULARIO CREADO</t>
+  </si>
+  <si>
+    <t>Corregir el menu</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1712,7 +1730,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1722,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1731,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1740,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -1749,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -1758,7 +1776,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1767,7 +1785,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1776,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1792,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1801,10 +1819,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1812,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -1821,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -1830,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -1839,7 +1857,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -1848,7 +1866,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1857,10 +1875,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1868,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -1877,7 +1895,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -1886,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -1895,7 +1913,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -1904,7 +1922,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -1913,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -1922,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -1931,7 +1949,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -1940,7 +1958,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -1949,7 +1967,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -1958,7 +1976,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -1967,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -1976,7 +1994,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -1985,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -1994,7 +2012,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -2003,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2019,16 +2037,16 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C37" s="4"/>
     </row>
@@ -2037,7 +2055,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="3"/>
     </row>
@@ -2046,7 +2064,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -2055,7 +2073,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="3"/>
     </row>
@@ -2064,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" s="3"/>
     </row>
@@ -2073,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C42" s="3"/>
     </row>
@@ -2082,2354 +2100,2388 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B212" s="12"/>
+        <v>258</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C216" s="3"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C217" s="3"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C218" s="3"/>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C219" s="3"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C220" s="3"/>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C221" s="3"/>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C222" s="3"/>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C223" s="3"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C224" s="3"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C225" s="3"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C227" s="3"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="3"/>
+        <v>386</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C237" s="3"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C242" s="3"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C243" s="3"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C246" s="3"/>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C247" s="3"/>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C254" s="3"/>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C255" s="3"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C263" s="3"/>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C264" s="3"/>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C265" s="3"/>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C266" s="3"/>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C271" s="3"/>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B273" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C273" s="3"/>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B274" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C274" s="3"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B275" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B276" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C276" s="3"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B277" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C277" s="3"/>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B278" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B279" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B280" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="B281" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C281" s="3"/>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B285" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C285" s="3"/>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B286" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C288" s="3"/>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C292" s="3"/>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C294" s="3"/>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C295" s="3"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C297" s="3"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C300" s="3"/>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C301" s="3"/>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C303" s="3"/>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C304" s="3"/>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C305" s="3"/>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C308" s="3"/>
+        <v>395</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>424</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4439,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4468,7 +4520,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -4477,7 +4529,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -4485,350 +4537,460 @@
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3">
@@ -4836,86 +4998,104 @@
         <v>94</v>
       </c>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>394</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>392</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>395</v>
+      </c>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C65" s="3"/>
     </row>
@@ -4923,8 +5103,8 @@
       <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>396</v>
+      <c r="B66" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="C66" s="3"/>
     </row>
@@ -4933,27 +5113,27 @@
         <v>103</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>395</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>402</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C69" s="3"/>
     </row>
@@ -4962,7 +5142,7 @@
         <v>106</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C70" s="3"/>
     </row>
@@ -4971,590 +5151,70 @@
         <v>107</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>395</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>403</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C73" s="3"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C74" s="3"/>
+      <c r="A74" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C76" s="3"/>
+      <c r="A76" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="A77" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5578,120 +5238,120 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
         <v>311</v>
       </c>
-      <c r="B3" t="s">
-        <v>312</v>
-      </c>
       <c r="C3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="427">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1304,6 +1304,12 @@
   </si>
   <si>
     <t>Corregir el menu</t>
+  </si>
+  <si>
+    <t>MODULO CREADO. REVISAR FUNCIONALIDAD</t>
+  </si>
+  <si>
+    <t>BUSCAR EN OFICINA</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3592,8 +3598,12 @@
       <c r="A208" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="B208" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
@@ -3892,7 +3902,9 @@
         <v>235</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">

--- a/HISTORIAL_REVISION.xlsx
+++ b/HISTORIAL_REVISION.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="427">
   <si>
     <t>FORMULARIO</t>
   </si>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2257,8 +2257,12 @@
       <c r="A61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
